--- a/classfiers/nano/svm/smote/nano-svm-sigmoid-smote-results.xlsx
+++ b/classfiers/nano/svm/smote/nano-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8068669527896996</v>
+        <v>0.9277777777777778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8826291079812206</v>
+        <v>0.784037558685446</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8430493273542601</v>
+        <v>0.8498727735368957</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8240648901232119</v>
+        <v>0.8876986488571491</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8258928571428571</v>
+        <v>0.8736263736263736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8685446009389671</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8466819221967963</v>
+        <v>0.8050632911392406</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8984548921069454</v>
+        <v>0.8773611937666689</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8591549295774648</v>
+        <v>0.7718446601941747</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8591549295774648</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8591549295774648</v>
+        <v>0.7589498806682576</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9499437942207235</v>
+        <v>0.8465251603517822</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8309859154929577</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8368794326241136</v>
+        <v>0.736111111111111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9280566025259539</v>
+        <v>0.8104432542044127</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9378238341968912</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8497652582159625</v>
+        <v>0.7276995305164319</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8916256157635468</v>
+        <v>0.6623931623931624</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9528753113359342</v>
+        <v>0.7447155546738963</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8545191433128112</v>
+        <v>0.7814238692227005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8582159624413144</v>
+        <v>0.7502347417840375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8554782455032364</v>
+        <v>0.7624780437697335</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9106790980625539</v>
+        <v>0.8333487623707818</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/svm/smote/nano-svm-sigmoid-smote-results.xlsx
+++ b/classfiers/nano/svm/smote/nano-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9277777777777778</v>
+        <v>0.8457142857142858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.784037558685446</v>
+        <v>0.7628865979381443</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8498727735368957</v>
+        <v>0.8021680216802168</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8876986488571491</v>
+        <v>0.8809650334785843</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8736263736263736</v>
+        <v>0.874251497005988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7464788732394366</v>
+        <v>0.7564766839378239</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8050632911392406</v>
+        <v>0.8111111111111112</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8773611937666689</v>
+        <v>0.8861171945943059</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7718446601941747</v>
+        <v>0.7542857142857143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7464788732394366</v>
+        <v>0.6839378238341969</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7589498806682576</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8465251603517822</v>
+        <v>0.8222851343411142</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.726027397260274</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7464788732394366</v>
+        <v>0.7422680412371134</v>
       </c>
       <c r="D5" t="n">
-        <v>0.736111111111111</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8104432542044127</v>
+        <v>0.8023075690401154</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.6359649122807017</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7276995305164319</v>
+        <v>0.7474226804123711</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6623931623931624</v>
+        <v>0.6872037914691943</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7447155546738963</v>
+        <v>0.7781902676139094</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7814238692227005</v>
+        <v>0.7674978273118834</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7502347417840375</v>
+        <v>0.7385983654719299</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7624780437697335</v>
+        <v>0.7505136212318738</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8333487623707818</v>
+        <v>0.8339730398136058</v>
       </c>
     </row>
   </sheetData>
